--- a/ianna.xlsx
+++ b/ianna.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="185" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1AF0D76-48CD-41FE-836E-16239473D91F}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\sbsa_excel_to_cosmos_etl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD18CCC-B094-4FEA-88E6-5EFBC10BD162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15960" tabRatio="921" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IA_Filter_ER_PM" sheetId="1" r:id="rId1"/>
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="289">
   <si>
     <t>Entity_Ruler</t>
   </si>
@@ -917,7 +922,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,11 +1278,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1285,7 +1290,7 @@
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1313,7 +1318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +1332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1341,7 +1346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1355,7 +1360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +1374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1383,7 +1388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1425,7 +1430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1439,7 +1444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1453,7 +1458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1467,7 +1472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1481,7 +1486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1495,7 +1500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1509,7 +1514,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1523,7 +1528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1537,7 +1542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1551,7 +1556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1593,7 +1598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1607,7 +1612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1621,7 +1626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1648,7 +1653,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -1658,7 +1663,7 @@
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1711,7 +1716,7 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -1720,7 +1725,7 @@
     <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1754,7 +1759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -1771,7 +1776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1788,7 +1793,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>145</v>
       </c>
@@ -1805,7 +1810,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -1822,7 +1827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -1839,7 +1844,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -1869,14 +1874,14 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -1887,7 +1892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>151</v>
       </c>
@@ -1898,7 +1903,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -1909,7 +1914,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -1920,7 +1925,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -1931,7 +1936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -1942,7 +1947,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -1953,7 +1958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -1964,7 +1969,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -1975,7 +1980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>160</v>
       </c>
@@ -1986,7 +1991,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -1997,7 +2002,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -2008,7 +2013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>164</v>
       </c>
@@ -2019,7 +2024,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>165</v>
       </c>
@@ -2030,7 +2035,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -2041,7 +2046,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>167</v>
       </c>
@@ -2052,7 +2057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -2063,7 +2068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -2074,7 +2079,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>170</v>
       </c>
@@ -2085,7 +2090,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -2096,7 +2101,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>172</v>
       </c>
@@ -2107,7 +2112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>173</v>
       </c>
@@ -2118,7 +2123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>174</v>
       </c>
@@ -2129,7 +2134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -2140,7 +2145,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -2151,7 +2156,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -2162,7 +2167,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2173,7 +2178,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>180</v>
       </c>
@@ -2184,7 +2189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>181</v>
       </c>
@@ -2195,7 +2200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>182</v>
       </c>
@@ -2206,7 +2211,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>183</v>
       </c>
@@ -2217,7 +2222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -2228,7 +2233,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -2239,7 +2244,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -2250,7 +2255,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -2261,7 +2266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>189</v>
       </c>
@@ -2272,7 +2277,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -2283,7 +2288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>191</v>
       </c>
@@ -2294,7 +2299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>192</v>
       </c>
@@ -2305,7 +2310,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -2316,7 +2321,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>194</v>
       </c>
@@ -2327,7 +2332,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>195</v>
       </c>
@@ -2338,7 +2343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>196</v>
       </c>
@@ -2349,7 +2354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>197</v>
       </c>
@@ -2360,7 +2365,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -2371,7 +2376,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -2382,7 +2387,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>199</v>
       </c>
@@ -2393,7 +2398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2404,7 +2409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>200</v>
       </c>
@@ -2415,7 +2420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>201</v>
       </c>
@@ -2426,7 +2431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>202</v>
       </c>
@@ -2437,7 +2442,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>203</v>
       </c>
@@ -2448,7 +2453,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -2459,7 +2464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -2470,7 +2475,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>205</v>
       </c>
@@ -2481,7 +2486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -2492,7 +2497,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>207</v>
       </c>
@@ -2503,7 +2508,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>209</v>
       </c>
@@ -2527,13 +2532,13 @@
       <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2541,7 +2546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -2549,7 +2554,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>211</v>
       </c>
@@ -2557,7 +2562,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>212</v>
       </c>
@@ -2565,7 +2570,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>213</v>
       </c>
@@ -2573,7 +2578,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -2581,7 +2586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -2589,7 +2594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -2597,7 +2602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>217</v>
       </c>
@@ -2605,7 +2610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>218</v>
       </c>
@@ -2613,7 +2618,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>219</v>
       </c>
@@ -2621,7 +2626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -2629,7 +2634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>221</v>
       </c>
@@ -2650,13 +2655,13 @@
       <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2664,7 +2669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -2672,7 +2677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -2680,7 +2685,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -2688,7 +2693,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>224</v>
       </c>
@@ -2696,7 +2701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>225</v>
       </c>
@@ -2704,7 +2709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>226</v>
       </c>
@@ -2712,7 +2717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -2720,7 +2725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -2728,7 +2733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -2736,7 +2741,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>229</v>
       </c>
@@ -2744,7 +2749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -2752,7 +2757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>230</v>
       </c>
@@ -2760,7 +2765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -2768,7 +2773,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -2776,7 +2781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>232</v>
       </c>
@@ -2784,7 +2789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>233</v>
       </c>
@@ -2792,7 +2797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>234</v>
       </c>
@@ -2800,7 +2805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>235</v>
       </c>
@@ -2808,7 +2813,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>236</v>
       </c>
@@ -2816,7 +2821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>237</v>
       </c>
@@ -2833,18 +2838,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8E90ED-D968-4A28-A238-4FE4D068CC4B}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -2855,7 +2860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -2866,7 +2871,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>239</v>
       </c>
@@ -2877,7 +2882,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -2888,7 +2893,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -2899,7 +2904,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>241</v>
       </c>
@@ -2910,7 +2915,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>242</v>
       </c>
@@ -2921,7 +2926,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>243</v>
       </c>
@@ -2932,7 +2937,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>244</v>
       </c>
@@ -2943,7 +2948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>245</v>
       </c>
@@ -2954,7 +2959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>246</v>
       </c>
@@ -2965,7 +2970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>247</v>
       </c>
@@ -2976,7 +2981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -2987,7 +2992,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>249</v>
       </c>
@@ -2998,7 +3003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>250</v>
       </c>
@@ -3009,7 +3014,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>251</v>
       </c>
@@ -3020,7 +3025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>252</v>
       </c>
@@ -3031,7 +3036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -3042,7 +3047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>253</v>
       </c>
@@ -3053,7 +3058,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>254</v>
       </c>
@@ -3064,7 +3069,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>255</v>
       </c>
@@ -3075,7 +3080,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>256</v>
       </c>
@@ -3086,7 +3091,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -3097,7 +3102,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>257</v>
       </c>
@@ -3108,7 +3113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>258</v>
       </c>
@@ -3119,7 +3124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>259</v>
       </c>
@@ -3130,7 +3135,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>260</v>
       </c>
@@ -3141,7 +3146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>261</v>
       </c>
@@ -3152,7 +3157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>262</v>
       </c>
@@ -3163,7 +3168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>263</v>
       </c>
@@ -3174,7 +3179,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>264</v>
       </c>
@@ -3185,7 +3190,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>265</v>
       </c>
@@ -3196,7 +3201,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>266</v>
       </c>
@@ -3207,7 +3212,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>267</v>
       </c>
@@ -3218,7 +3223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>268</v>
       </c>
@@ -3229,7 +3234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>269</v>
       </c>
@@ -3240,7 +3245,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>270</v>
       </c>
@@ -3251,7 +3256,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>271</v>
       </c>
@@ -3262,7 +3267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>272</v>
       </c>
@@ -3273,7 +3278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>273</v>
       </c>
@@ -3284,7 +3289,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>274</v>
       </c>
@@ -3295,7 +3300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>275</v>
       </c>
@@ -3306,7 +3311,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -3317,7 +3322,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>276</v>
       </c>
@@ -3328,7 +3333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>277</v>
       </c>
@@ -3339,7 +3344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>278</v>
       </c>
@@ -3350,7 +3355,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>279</v>
       </c>
@@ -3361,7 +3366,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>280</v>
       </c>
@@ -3372,7 +3377,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>281</v>
       </c>
@@ -3383,7 +3388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -3394,7 +3399,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>282</v>
       </c>
@@ -3405,7 +3410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>283</v>
       </c>
@@ -3416,7 +3421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>284</v>
       </c>
@@ -3427,7 +3432,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>285</v>
       </c>
@@ -3448,18 +3453,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4A428C-5B1B-45A0-BE38-0FC1A79EFE59}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>286</v>
       </c>
@@ -3470,114 +3473,246 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
+      </c>
+      <c r="B23">
+        <v>-1</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -3593,17 +3728,17 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3617,7 +3752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3644,14 +3779,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -3662,7 +3797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -3673,7 +3808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -3684,7 +3819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -3695,7 +3830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -3706,7 +3841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3730,14 +3865,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -3748,7 +3883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -3759,7 +3894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -3770,7 +3905,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -3781,7 +3916,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -3792,7 +3927,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -3803,7 +3938,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -3814,7 +3949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -3825,7 +3960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -3836,7 +3971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -3847,7 +3982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -3858,7 +3993,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -3879,10 +4014,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -3890,7 +4025,7 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -3904,7 +4039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -3931,7 +4066,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
@@ -3940,7 +4075,7 @@
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -3957,7 +4092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -3984,10 +4119,10 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -3996,7 +4131,7 @@
     <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -4013,7 +4148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -4030,7 +4165,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -4047,7 +4182,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -4064,7 +4199,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -4081,7 +4216,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -4098,9 +4233,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>104</v>
@@ -4125,7 +4263,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4133,7 +4271,7 @@
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -4147,7 +4285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -4161,7 +4299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -4175,7 +4313,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -4189,7 +4327,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -4203,7 +4341,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -4217,7 +4355,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -4231,7 +4369,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -4245,7 +4383,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -4259,7 +4397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -4273,7 +4411,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -4287,7 +4425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -4301,7 +4439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -4328,7 +4466,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4336,7 +4474,7 @@
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -4350,7 +4488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -4364,7 +4502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -4378,7 +4516,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -4392,7 +4530,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -4406,7 +4544,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -4420,7 +4558,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -4434,7 +4572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -4448,7 +4586,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -4462,7 +4600,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -4476,7 +4614,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -4490,7 +4628,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -4504,7 +4642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -4518,7 +4656,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -4532,7 +4670,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>

--- a/ianna.xlsx
+++ b/ianna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\sbsa_excel_to_cosmos_etl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD18CCC-B094-4FEA-88E6-5EFBC10BD162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D3C3AF-5D93-41FF-815D-5F14264036B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15960" tabRatio="921" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" tabRatio="921" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IA_Filter_ER_PM" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="299">
   <si>
     <t>Entity_Ruler</t>
   </si>
@@ -909,20 +909,50 @@
     <t>Water Amendment By-law</t>
   </si>
   <si>
-    <t>Impacted Area</t>
-  </si>
-  <si>
-    <t>Representative ID</t>
-  </si>
-  <si>
-    <t>Representative Name</t>
+    <t>dcc20ab7-0039-43ab-a5a5-40a51c49b102</t>
+  </si>
+  <si>
+    <t>Malangu, Daniel D</t>
+  </si>
+  <si>
+    <t>dcc20a87-0039-49ab-a5c5-40a51c49b102</t>
+  </si>
+  <si>
+    <t>Lehlohonolo, Mashiyane L</t>
+  </si>
+  <si>
+    <t>dcc20ab8-0039-43ab-a5a5-40a51c49b102</t>
+  </si>
+  <si>
+    <t>Du Plessis, Alex-Jean AJ</t>
+  </si>
+  <si>
+    <t>dcc20a87-5439-49ab-a5c5-40a51c49b102</t>
+  </si>
+  <si>
+    <t>Remember, Mabunda R</t>
+  </si>
+  <si>
+    <t>341f9d1a-dfd9-4f50-8df2-99d86eb5ee60</t>
+  </si>
+  <si>
+    <t>Ramachandran,Iaiswarya</t>
+  </si>
+  <si>
+    <t>ImpactedArea</t>
+  </si>
+  <si>
+    <t>RepresentativeID</t>
+  </si>
+  <si>
+    <t>RepresentativeName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -937,6 +967,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0451A5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -959,9 +995,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1278,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
@@ -3451,275 +3490,290 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4A428C-5B1B-45A0-BE38-0FC1A79EFE59}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
+      <c r="B2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
+      <c r="B3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
+      <c r="B4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>117</v>
       </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
+      <c r="B5" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>185</v>
       </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
+      <c r="B6" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>162</v>
       </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
+      <c r="B7" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
+      <c r="B8" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>166</v>
       </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
+      <c r="B9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>176</v>
       </c>
-      <c r="B10">
-        <v>-1</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
+      <c r="B10" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
-      <c r="B11">
-        <v>-1</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
+      <c r="B11" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12">
-        <v>-1</v>
-      </c>
-      <c r="C12">
-        <v>-1</v>
+      <c r="B12" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
-        <v>-1</v>
-      </c>
-      <c r="C13">
-        <v>-1</v>
+      <c r="B13" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>-1</v>
-      </c>
-      <c r="C14">
-        <v>-1</v>
+      <c r="B14" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>102</v>
       </c>
-      <c r="B15">
-        <v>-1</v>
-      </c>
-      <c r="C15">
-        <v>-1</v>
+      <c r="B15" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>109</v>
       </c>
-      <c r="B16">
-        <v>-1</v>
-      </c>
-      <c r="C16">
-        <v>-1</v>
+      <c r="B16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17">
-        <v>-1</v>
-      </c>
-      <c r="C17">
-        <v>-1</v>
+      <c r="B17" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="B18">
-        <v>-1</v>
-      </c>
-      <c r="C18">
-        <v>-1</v>
+      <c r="B18" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>179</v>
       </c>
-      <c r="B19">
-        <v>-1</v>
-      </c>
-      <c r="C19">
-        <v>-1</v>
+      <c r="B19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20">
-        <v>-1</v>
-      </c>
-      <c r="C20">
-        <v>-1</v>
+      <c r="B20" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B21">
-        <v>-1</v>
-      </c>
-      <c r="C21">
-        <v>-1</v>
+      <c r="B21" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
-      <c r="B22">
-        <v>-1</v>
-      </c>
-      <c r="C22">
-        <v>-1</v>
+      <c r="B22" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23">
-        <v>-1</v>
-      </c>
-      <c r="C23">
-        <v>-1</v>
-      </c>
+      <c r="B23" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
     <sortCondition ref="A2:A23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
